--- a/documentation/quality/Test Documents/06 TC - Orders.xlsx
+++ b/documentation/quality/Test Documents/06 TC - Orders.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="19440" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="212">
   <si>
     <t>Tester:</t>
   </si>
@@ -819,15 +819,33 @@
     <t>Button label: Back to Orders
 Button color: Blue</t>
   </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>PERCENTAGE</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -869,7 +887,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -897,6 +915,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,7 +1105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1163,6 +1193,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1212,6 +1266,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1290,6 +1349,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1324,6 +1384,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1499,14 +1560,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
@@ -1516,7 +1577,7 @@
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>55</v>
       </c>
@@ -1527,7 +1588,7 @@
       <c r="F1" s="53"/>
       <c r="G1" s="54"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
@@ -1537,8 +1598,23 @@
       <c r="E2" s="47"/>
       <c r="F2" s="47"/>
       <c r="G2" s="48"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="I2" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="K2" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="M2" s="59" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
         <v>1</v>
       </c>
@@ -1548,8 +1624,28 @@
       <c r="E3" s="47"/>
       <c r="F3" s="47"/>
       <c r="G3" s="48"/>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1">
+      <c r="I3" s="60">
+        <f>AVERAGE(Sheet2!B17/64)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="60">
+        <f>AVERAGE(Sheet2!C17/64)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="60">
+        <f>AVERAGE(Sheet2!D17/64)</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="60">
+        <f>AVERAGE(Sheet2!E17/64)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="60">
+        <f>SUM(I3:L4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
         <v>54</v>
       </c>
@@ -1559,8 +1655,13 @@
       <c r="E4" s="44"/>
       <c r="F4" s="44"/>
       <c r="G4" s="45"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>6</v>
       </c>
@@ -1573,7 +1674,7 @@
       <c r="F5" s="20"/>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1">
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>2</v>
       </c>
@@ -1596,7 +1697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="120.75" thickBot="1">
+    <row r="7" spans="1:15" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>56</v>
       </c>
@@ -1622,7 +1723,7 @@
       <c r="N7" s="50"/>
       <c r="O7" s="51"/>
     </row>
-    <row r="8" spans="1:15" ht="75">
+    <row r="8" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>57</v>
       </c>
@@ -1639,7 +1740,7 @@
       </c>
       <c r="G8" s="25"/>
     </row>
-    <row r="9" spans="1:15" ht="60">
+    <row r="9" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>58</v>
       </c>
@@ -1656,7 +1757,7 @@
       </c>
       <c r="G9" s="25"/>
     </row>
-    <row r="10" spans="1:15" ht="60">
+    <row r="10" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>59</v>
       </c>
@@ -1673,7 +1774,7 @@
       </c>
       <c r="G10" s="25"/>
     </row>
-    <row r="11" spans="1:15" ht="210">
+    <row r="11" spans="1:15" ht="210" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>60</v>
       </c>
@@ -1690,7 +1791,7 @@
       </c>
       <c r="G11" s="25"/>
     </row>
-    <row r="12" spans="1:15" ht="60">
+    <row r="12" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>61</v>
       </c>
@@ -1707,7 +1808,7 @@
       </c>
       <c r="G12" s="25"/>
     </row>
-    <row r="13" spans="1:15" s="12" customFormat="1">
+    <row r="13" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>6.1</v>
       </c>
@@ -1720,7 +1821,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="27"/>
     </row>
-    <row r="14" spans="1:15" ht="45">
+    <row r="14" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>71</v>
       </c>
@@ -1737,7 +1838,7 @@
       </c>
       <c r="G14" s="25"/>
     </row>
-    <row r="15" spans="1:15" ht="45">
+    <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>72</v>
       </c>
@@ -1754,7 +1855,7 @@
       </c>
       <c r="G15" s="25"/>
     </row>
-    <row r="16" spans="1:15" ht="45">
+    <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>73</v>
       </c>
@@ -1771,7 +1872,7 @@
       </c>
       <c r="G16" s="25"/>
     </row>
-    <row r="17" spans="1:7" ht="60">
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>74</v>
       </c>
@@ -1788,7 +1889,7 @@
       </c>
       <c r="G17" s="25"/>
     </row>
-    <row r="18" spans="1:7" ht="45">
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>75</v>
       </c>
@@ -1805,7 +1906,7 @@
       </c>
       <c r="G18" s="25"/>
     </row>
-    <row r="19" spans="1:7" ht="30">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>6.2</v>
       </c>
@@ -1818,7 +1919,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="29"/>
     </row>
-    <row r="20" spans="1:7" ht="45">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>81</v>
       </c>
@@ -1835,7 +1936,7 @@
       </c>
       <c r="G20" s="25"/>
     </row>
-    <row r="21" spans="1:7" ht="45">
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>82</v>
       </c>
@@ -1852,7 +1953,7 @@
       </c>
       <c r="G21" s="25"/>
     </row>
-    <row r="22" spans="1:7" ht="45">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>83</v>
       </c>
@@ -1869,7 +1970,7 @@
       </c>
       <c r="G22" s="25"/>
     </row>
-    <row r="23" spans="1:7" ht="60">
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>84</v>
       </c>
@@ -1886,7 +1987,7 @@
       </c>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:7" ht="45">
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>85</v>
       </c>
@@ -1903,7 +2004,7 @@
       </c>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" ht="45">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>86</v>
       </c>
@@ -1920,7 +2021,7 @@
       </c>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" spans="1:7" ht="75">
+    <row r="26" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>87</v>
       </c>
@@ -1937,7 +2038,7 @@
       </c>
       <c r="G26" s="25"/>
     </row>
-    <row r="27" spans="1:7" ht="75">
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>88</v>
       </c>
@@ -1954,7 +2055,7 @@
       </c>
       <c r="G27" s="25"/>
     </row>
-    <row r="28" spans="1:7" ht="75">
+    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>89</v>
       </c>
@@ -1971,7 +2072,7 @@
       </c>
       <c r="G28" s="25"/>
     </row>
-    <row r="29" spans="1:7" ht="60">
+    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>90</v>
       </c>
@@ -1988,7 +2089,7 @@
       </c>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="1:7" ht="30">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="28">
         <v>6.3</v>
       </c>
@@ -2001,7 +2102,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="29"/>
     </row>
-    <row r="31" spans="1:7" ht="45">
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>108</v>
       </c>
@@ -2020,7 +2121,7 @@
       </c>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="1:7" ht="45">
+    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>109</v>
       </c>
@@ -2039,7 +2140,7 @@
       </c>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:7" ht="60">
+    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>110</v>
       </c>
@@ -2058,7 +2159,7 @@
       </c>
       <c r="G33" s="25"/>
     </row>
-    <row r="34" spans="1:7" ht="45">
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>111</v>
       </c>
@@ -2077,7 +2178,7 @@
       </c>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:7" ht="60">
+    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>112</v>
       </c>
@@ -2096,7 +2197,7 @@
       </c>
       <c r="G35" s="25"/>
     </row>
-    <row r="36" spans="1:7" ht="60">
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>113</v>
       </c>
@@ -2115,7 +2216,7 @@
       </c>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" spans="1:7" ht="60">
+    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>114</v>
       </c>
@@ -2134,7 +2235,7 @@
       </c>
       <c r="G37" s="25"/>
     </row>
-    <row r="38" spans="1:7" ht="45">
+    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>115</v>
       </c>
@@ -2153,7 +2254,7 @@
       </c>
       <c r="G38" s="25"/>
     </row>
-    <row r="39" spans="1:7" ht="30">
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>6.4</v>
       </c>
@@ -2166,7 +2267,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="31"/>
     </row>
-    <row r="40" spans="1:7" ht="45">
+    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>133</v>
       </c>
@@ -2183,7 +2284,7 @@
       </c>
       <c r="G40" s="25"/>
     </row>
-    <row r="41" spans="1:7" ht="210">
+    <row r="41" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
         <v>134</v>
       </c>
@@ -2200,7 +2301,7 @@
       </c>
       <c r="G41" s="25"/>
     </row>
-    <row r="42" spans="1:7" ht="75">
+    <row r="42" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
         <v>135</v>
       </c>
@@ -2217,7 +2318,7 @@
       </c>
       <c r="G42" s="25"/>
     </row>
-    <row r="43" spans="1:7" ht="90">
+    <row r="43" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="32" t="s">
         <v>136</v>
       </c>
@@ -2234,7 +2335,7 @@
       </c>
       <c r="G43" s="25"/>
     </row>
-    <row r="44" spans="1:7" ht="75">
+    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
         <v>137</v>
       </c>
@@ -2251,7 +2352,7 @@
       </c>
       <c r="G44" s="25"/>
     </row>
-    <row r="45" spans="1:7" ht="75">
+    <row r="45" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
         <v>138</v>
       </c>
@@ -2268,7 +2369,7 @@
       </c>
       <c r="G45" s="25"/>
     </row>
-    <row r="46" spans="1:7" ht="75">
+    <row r="46" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
         <v>139</v>
       </c>
@@ -2285,7 +2386,7 @@
       </c>
       <c r="G46" s="25"/>
     </row>
-    <row r="47" spans="1:7" ht="60">
+    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
         <v>140</v>
       </c>
@@ -2302,7 +2403,7 @@
       </c>
       <c r="G47" s="25"/>
     </row>
-    <row r="48" spans="1:7" ht="30">
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="30">
         <v>6.5</v>
       </c>
@@ -2315,7 +2416,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="31"/>
     </row>
-    <row r="49" spans="1:7" ht="75">
+    <row r="49" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
         <v>149</v>
       </c>
@@ -2332,7 +2433,7 @@
       </c>
       <c r="G49" s="25"/>
     </row>
-    <row r="50" spans="1:7" ht="60">
+    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
         <v>150</v>
       </c>
@@ -2349,7 +2450,7 @@
       </c>
       <c r="G50" s="25"/>
     </row>
-    <row r="51" spans="1:7" ht="75">
+    <row r="51" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
         <v>151</v>
       </c>
@@ -2366,7 +2467,7 @@
       </c>
       <c r="G51" s="25"/>
     </row>
-    <row r="52" spans="1:7" ht="150">
+    <row r="52" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
         <v>152</v>
       </c>
@@ -2383,7 +2484,7 @@
       </c>
       <c r="G52" s="25"/>
     </row>
-    <row r="53" spans="1:7" ht="45">
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
         <v>153</v>
       </c>
@@ -2400,7 +2501,7 @@
       </c>
       <c r="G53" s="25"/>
     </row>
-    <row r="54" spans="1:7" ht="30">
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="40" t="s">
         <v>156</v>
       </c>
@@ -2413,7 +2514,7 @@
       <c r="F54" s="16"/>
       <c r="G54" s="34"/>
     </row>
-    <row r="55" spans="1:7" ht="30">
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
         <v>170</v>
       </c>
@@ -2430,7 +2531,7 @@
       </c>
       <c r="G55" s="25"/>
     </row>
-    <row r="56" spans="1:7" ht="60">
+    <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
         <v>171</v>
       </c>
@@ -2447,7 +2548,7 @@
       </c>
       <c r="G56" s="25"/>
     </row>
-    <row r="57" spans="1:7" ht="60">
+    <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="32" t="s">
         <v>172</v>
       </c>
@@ -2464,7 +2565,7 @@
       </c>
       <c r="G57" s="25"/>
     </row>
-    <row r="58" spans="1:7" ht="195">
+    <row r="58" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
         <v>173</v>
       </c>
@@ -2481,7 +2582,7 @@
       </c>
       <c r="G58" s="25"/>
     </row>
-    <row r="59" spans="1:7" ht="75">
+    <row r="59" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="32" t="s">
         <v>174</v>
       </c>
@@ -2498,7 +2599,7 @@
       </c>
       <c r="G59" s="25"/>
     </row>
-    <row r="60" spans="1:7" ht="60">
+    <row r="60" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
         <v>175</v>
       </c>
@@ -2515,7 +2616,7 @@
       </c>
       <c r="G60" s="25"/>
     </row>
-    <row r="61" spans="1:7" ht="30">
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="40" t="s">
         <v>164</v>
       </c>
@@ -2528,7 +2629,7 @@
       <c r="F61" s="16"/>
       <c r="G61" s="34"/>
     </row>
-    <row r="62" spans="1:7" ht="60">
+    <row r="62" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
         <v>176</v>
       </c>
@@ -2545,7 +2646,7 @@
       </c>
       <c r="G62" s="25"/>
     </row>
-    <row r="63" spans="1:7" ht="150">
+    <row r="63" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A63" s="32" t="s">
         <v>177</v>
       </c>
@@ -2562,7 +2663,7 @@
       </c>
       <c r="G63" s="25"/>
     </row>
-    <row r="64" spans="1:7" ht="60">
+    <row r="64" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="32" t="s">
         <v>178</v>
       </c>
@@ -2579,7 +2680,7 @@
       </c>
       <c r="G64" s="25"/>
     </row>
-    <row r="65" spans="1:7" ht="30">
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="40" t="s">
         <v>168</v>
       </c>
@@ -2592,7 +2693,7 @@
       <c r="F65" s="16"/>
       <c r="G65" s="34"/>
     </row>
-    <row r="66" spans="1:7" ht="30">
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
         <v>187</v>
       </c>
@@ -2609,7 +2710,7 @@
       </c>
       <c r="G66" s="25"/>
     </row>
-    <row r="67" spans="1:7" ht="60">
+    <row r="67" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="24" t="s">
         <v>188</v>
       </c>
@@ -2626,7 +2727,7 @@
       </c>
       <c r="G67" s="25"/>
     </row>
-    <row r="68" spans="1:7" ht="60">
+    <row r="68" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="24" t="s">
         <v>189</v>
       </c>
@@ -2643,7 +2744,7 @@
       </c>
       <c r="G68" s="25"/>
     </row>
-    <row r="69" spans="1:7" ht="75">
+    <row r="69" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
         <v>190</v>
       </c>
@@ -2660,7 +2761,7 @@
       </c>
       <c r="G69" s="25"/>
     </row>
-    <row r="70" spans="1:7" ht="60">
+    <row r="70" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
         <v>191</v>
       </c>
@@ -2677,7 +2778,7 @@
       </c>
       <c r="G70" s="25"/>
     </row>
-    <row r="71" spans="1:7" ht="45">
+    <row r="71" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
         <v>192</v>
       </c>
@@ -2694,7 +2795,7 @@
       </c>
       <c r="G71" s="25"/>
     </row>
-    <row r="72" spans="1:7" ht="75">
+    <row r="72" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="24" t="s">
         <v>193</v>
       </c>
@@ -2711,7 +2812,7 @@
       </c>
       <c r="G72" s="25"/>
     </row>
-    <row r="73" spans="1:7" ht="75">
+    <row r="73" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="24" t="s">
         <v>194</v>
       </c>
@@ -2728,7 +2829,7 @@
       </c>
       <c r="G73" s="25"/>
     </row>
-    <row r="74" spans="1:7" ht="75">
+    <row r="74" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="24" t="s">
         <v>195</v>
       </c>
@@ -2745,7 +2846,7 @@
       </c>
       <c r="G74" s="25"/>
     </row>
-    <row r="75" spans="1:7" ht="60">
+    <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="24" t="s">
         <v>196</v>
       </c>
@@ -2762,7 +2863,7 @@
       </c>
       <c r="G75" s="25"/>
     </row>
-    <row r="76" spans="1:7" ht="30">
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="40" t="s">
         <v>203</v>
       </c>
@@ -2775,7 +2876,7 @@
       <c r="F76" s="16"/>
       <c r="G76" s="34"/>
     </row>
-    <row r="77" spans="1:7" ht="165">
+    <row r="77" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A77" s="24" t="s">
         <v>200</v>
       </c>
@@ -2792,7 +2893,7 @@
       </c>
       <c r="G77" s="25"/>
     </row>
-    <row r="78" spans="1:7" ht="90">
+    <row r="78" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A78" s="24" t="s">
         <v>201</v>
       </c>
@@ -2809,7 +2910,7 @@
       </c>
       <c r="G78" s="25"/>
     </row>
-    <row r="79" spans="1:7" ht="60.75" thickBot="1">
+    <row r="79" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="35" t="s">
         <v>202</v>
       </c>
@@ -2826,33 +2927,38 @@
       </c>
       <c r="G79" s="39"/>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="I7:O7"/>
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <conditionalFormatting sqref="F49:F53 F66:F75 F40:F47 F62:F64 F55:F60 F31:F38 F7:F12 F14:F18 F20:F29">
     <cfRule type="containsText" dxfId="5" priority="31" operator="containsText" text="BLOCKED">
@@ -2887,33 +2993,284 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:A4"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="61">
+        <v>6</v>
+      </c>
+      <c r="B7" s="62">
+        <f>COUNTIF(Sheet1!F7:F12, Sheet2!B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="62">
+        <f>COUNTIF(Sheet1!F7:F12, Sheet2!C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="62">
+        <f>COUNTIF(Sheet1!F7:F12, Sheet2!D6)</f>
+        <v>6</v>
+      </c>
+      <c r="E7" s="62">
+        <f>COUNTIF(Sheet1!F7:F12, Sheet2!E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="61">
+        <v>6.1</v>
+      </c>
+      <c r="B8" s="62">
+        <f>COUNTIF(Sheet1!F14:F18, Sheet2!B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="62">
+        <f>COUNTIF(Sheet1!F14:F18, Sheet2!C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="62">
+        <f>COUNTIF(Sheet1!F14:F18, Sheet2!D6)</f>
+        <v>5</v>
+      </c>
+      <c r="E8" s="62">
+        <f>COUNTIF(Sheet1!F14:F18, Sheet2!E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="61">
+        <v>6.2</v>
+      </c>
+      <c r="B9" s="62">
+        <f>COUNTIF(Sheet1!F20:F29, Sheet2!B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="62">
+        <f>COUNTIF(Sheet1!F20:F29, Sheet2!C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="62">
+        <f>COUNTIF(Sheet1!F20:F29, Sheet2!D6)</f>
+        <v>10</v>
+      </c>
+      <c r="E9" s="62">
+        <f>COUNTIF(Sheet1!F20:F29, Sheet2!E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="61">
+        <v>6.3</v>
+      </c>
+      <c r="B10" s="62">
+        <f>COUNTIF(Sheet1!F31:F38, Sheet2!B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="62">
+        <f>COUNTIF(Sheet1!F31:F38, Sheet2!C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="62">
+        <f>COUNTIF(Sheet1!F31:F38, Sheet2!D6)</f>
+        <v>8</v>
+      </c>
+      <c r="E10" s="62">
+        <f>COUNTIF(Sheet1!F31:F38, Sheet2!E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="61">
+        <v>6.4</v>
+      </c>
+      <c r="B11" s="62">
+        <f>COUNTIF(Sheet1!F40:F47, Sheet2!B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="62">
+        <f>COUNTIF(Sheet1!F40:F47, Sheet2!C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="62">
+        <f>COUNTIF(Sheet1!F40:F47, Sheet2!D6)</f>
+        <v>8</v>
+      </c>
+      <c r="E11" s="62">
+        <f>COUNTIF(Sheet1!F40:F47, Sheet2!E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="61">
+        <v>6.5</v>
+      </c>
+      <c r="B12" s="62">
+        <f>COUNTIF(Sheet1!F49:F53, Sheet2!B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="62">
+        <f>COUNTIF(Sheet1!F49:F53, Sheet2!C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="62">
+        <f>COUNTIF(Sheet1!F49:F53, Sheet2!D6)</f>
+        <v>5</v>
+      </c>
+      <c r="E12" s="62">
+        <f>COUNTIF(Sheet1!F49:F53, Sheet2!E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="62">
+        <f>COUNTIF(Sheet1!F55:F60, Sheet2!B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="62">
+        <f>COUNTIF(Sheet1!F55:F60, Sheet2!C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="62">
+        <f>COUNTIF(Sheet1!F55:F60, Sheet2!D6)</f>
+        <v>6</v>
+      </c>
+      <c r="E13" s="62">
+        <f>COUNTIF(Sheet1!F55:F60, Sheet2!E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="62">
+        <f>COUNTIF(Sheet1!F62:F64, Sheet2!B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="62">
+        <f>COUNTIF(Sheet1!F62:F64, Sheet2!C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="62">
+        <f>COUNTIF(Sheet1!F62:F64, Sheet2!D6)</f>
+        <v>3</v>
+      </c>
+      <c r="E14" s="62">
+        <f>COUNTIF(Sheet1!F62:F64, Sheet2!E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="62">
+        <f>COUNTIF(Sheet1!F66:F75, Sheet2!B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="62">
+        <f>COUNTIF(Sheet1!F66:F75, Sheet2!C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="62">
+        <f>COUNTIF(Sheet1!F66:F75, Sheet2!D6)</f>
+        <v>10</v>
+      </c>
+      <c r="E15" s="62">
+        <f>COUNTIF(Sheet1!F66:F75, Sheet2!E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="62">
+        <f>COUNTIF(Sheet1!F77:F79, Sheet2!B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="62">
+        <f>COUNTIF(Sheet1!F77:F79, Sheet2!C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="62">
+        <f>COUNTIF(Sheet1!F77:F79, Sheet2!D6)</f>
+        <v>3</v>
+      </c>
+      <c r="E16" s="62">
+        <f>COUNTIF(Sheet1!F77:F79, Sheet2!E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17">
+        <f>SUM(B7:B16)</f>
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f>SUM(C7:C16)</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f>SUM(D7:D16)</f>
+        <v>64</v>
+      </c>
+      <c r="E17">
+        <f>SUM(E7:E16)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2922,31 +3279,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
